--- a/course/Region.xlsx
+++ b/course/Region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tguehring/Projects/private/python-excel-utilities/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9291B0E-E94F-994C-ABCA-C4DB05956F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06D78F-8444-1F46-956F-29B0983A3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86780" yWindow="1000" windowWidth="27640" windowHeight="16940" xr2:uid="{028DCF5A-A2D4-824E-AE3B-80BDCA4D741A}"/>
+    <workbookView xWindow="40960" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{028DCF5A-A2D4-824E-AE3B-80BDCA4D741A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>CREID</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>CRE5555</t>
+  </si>
+  <si>
+    <t>CRE ID</t>
   </si>
 </sst>
 </file>
@@ -433,47 +433,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/course/Region.xlsx
+++ b/course/Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tguehring/Projects/private/python-excel-utilities/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06D78F-8444-1F46-956F-29B0983A3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE008A8-B23E-B549-82C2-D0DF7C7DBC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{028DCF5A-A2D4-824E-AE3B-80BDCA4D741A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Region</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>CRE ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sampling Period</t>
+  </si>
+  <si>
+    <t>Sampling Value</t>
+  </si>
+  <si>
+    <t>Klauspeterstrasse 1</t>
+  </si>
+  <si>
+    <t>Klauspeterstrasse 2</t>
+  </si>
+  <si>
+    <t>Klauspeterstrasse 3</t>
+  </si>
+  <si>
+    <t>Klauspeterstrasse 4</t>
+  </si>
+  <si>
+    <t>Klauspeterstrasse 5</t>
   </si>
 </sst>
 </file>
@@ -420,60 +444,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA38E24-A473-5849-9CAF-F13D80DF63B7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
